--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_diff_constant_prefilled/diff_filled_a2_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_diff_constant_prefilled/diff_filled_a2_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6166666666666667</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="C3">
-        <v>0.4935622317596566</v>
+        <v>0.5321100917431193</v>
       </c>
       <c r="D3">
-        <v>0.5960264900662252</v>
+        <v>0.5586206896551724</v>
       </c>
       <c r="E3">
-        <v>0.5083333333333333</v>
+        <v>0.4826086956521739</v>
       </c>
       <c r="F3">
-        <v>0.6275862068965518</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="G3">
-        <v>0.4979423868312757</v>
+        <v>0.497907949790795</v>
       </c>
       <c r="H3">
-        <v>0.504</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6262626262626263</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="C4">
-        <v>0.4722222222222222</v>
+        <v>0.5240174672489083</v>
       </c>
       <c r="D4">
-        <v>0.6759259259259259</v>
+        <v>0.5982905982905983</v>
       </c>
       <c r="E4">
-        <v>0.4525316455696203</v>
+        <v>0.4498381877022654</v>
       </c>
       <c r="F4">
-        <v>0.6822429906542056</v>
+        <v>0.7102803738317757</v>
       </c>
       <c r="G4">
-        <v>0.437125748502994</v>
+        <v>0.45</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6101694915254238</v>
+        <v>0.6033057851239669</v>
       </c>
       <c r="C5">
-        <v>0.4522968197879859</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="D5">
-        <v>0.6853932584269663</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E5">
-        <v>0.4472934472934473</v>
+        <v>0.4243323442136498</v>
       </c>
       <c r="F5">
-        <v>0.7307692307692307</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="G5">
-        <v>0.4325068870523416</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="H5">
-        <v>0.512</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5857142857142857</v>
+        <v>0.6423357664233577</v>
       </c>
       <c r="C6">
-        <v>0.4626865671641791</v>
+        <v>0.4735099337748344</v>
       </c>
       <c r="D6">
-        <v>0.691358024691358</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="E6">
-        <v>0.4568245125348189</v>
+        <v>0.430635838150289</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="G6">
-        <v>0.4363636363636363</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="H6">
-        <v>0.524</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6688311688311688</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C7">
-        <v>0.4740932642487047</v>
+        <v>0.4579945799457995</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="E7">
-        <v>0.4565217391304348</v>
+        <v>0.4200542005420054</v>
       </c>
       <c r="F7">
-        <v>0.6527777777777778</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="G7">
-        <v>0.4300518134715026</v>
+        <v>0.4458762886597938</v>
       </c>
       <c r="H7">
-        <v>0.524</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.672316384180791</v>
+        <v>0.7168674698795181</v>
       </c>
       <c r="C8">
-        <v>0.4407158836689038</v>
+        <v>0.4504716981132075</v>
       </c>
       <c r="D8">
-        <v>0.6753246753246753</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8">
-        <v>0.4486486486486487</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="F8">
-        <v>0.6805555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4311688311688311</v>
+        <v>0.4503816793893129</v>
       </c>
       <c r="H8">
-        <v>0.52</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6761363636363636</v>
+        <v>0.6983240223463687</v>
       </c>
       <c r="C9">
-        <v>0.4449064449064449</v>
+        <v>0.4356846473029046</v>
       </c>
       <c r="D9">
-        <v>0.7105263157894737</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="E9">
-        <v>0.4472222222222222</v>
+        <v>0.4450402144772118</v>
       </c>
       <c r="F9">
-        <v>0.6825396825396826</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="G9">
-        <v>0.4301075268817204</v>
+        <v>0.4681933842239186</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6645569620253164</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C10">
-        <v>0.455535390199637</v>
+        <v>0.4385321100917431</v>
       </c>
       <c r="D10">
-        <v>0.5729166666666666</v>
+        <v>0.6329113924050633</v>
       </c>
       <c r="E10">
-        <v>0.4540389972144847</v>
+        <v>0.4572192513368984</v>
       </c>
       <c r="F10">
-        <v>0.625</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="G10">
-        <v>0.4409448818897638</v>
+        <v>0.4661458333333333</v>
       </c>
       <c r="H10">
-        <v>0.472</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7019867549668874</v>
+        <v>0.6906077348066298</v>
       </c>
       <c r="C11">
-        <v>0.467817896389325</v>
+        <v>0.4420880913539967</v>
       </c>
       <c r="D11">
-        <v>0.5875</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="E11">
-        <v>0.4591549295774648</v>
+        <v>0.4772117962466488</v>
       </c>
       <c r="F11">
-        <v>0.5882352941176471</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="G11">
-        <v>0.4358288770053476</v>
+        <v>0.4677002583979328</v>
       </c>
       <c r="H11">
-        <v>0.484</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6896551724137931</v>
+        <v>0.6978021978021978</v>
       </c>
       <c r="C12">
-        <v>0.4606741573033708</v>
+        <v>0.4434654919236417</v>
       </c>
       <c r="D12">
-        <v>0.5714285714285714</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="E12">
-        <v>0.4508196721311475</v>
+        <v>0.4879356568364611</v>
       </c>
       <c r="F12">
-        <v>0.6440677966101694</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="G12">
-        <v>0.4514435695538058</v>
+        <v>0.4673629242819843</v>
       </c>
       <c r="H12">
-        <v>0.472</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6684210526315789</v>
+        <v>0.6994535519125683</v>
       </c>
       <c r="C13">
-        <v>0.4582781456953642</v>
+        <v>0.4423592493297587</v>
       </c>
       <c r="D13">
-        <v>0.6133333333333333</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="E13">
-        <v>0.4385474860335196</v>
+        <v>0.4959349593495935</v>
       </c>
       <c r="F13">
-        <v>0.5538461538461539</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="G13">
-        <v>0.4573643410852713</v>
+        <v>0.4512820512820513</v>
       </c>
       <c r="H13">
-        <v>0.46</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6888888888888889</v>
+        <v>0.7016574585635359</v>
       </c>
       <c r="C14">
-        <v>0.4656019656019656</v>
+        <v>0.451219512195122</v>
       </c>
       <c r="D14">
-        <v>0.5949367088607594</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="E14">
-        <v>0.4426666666666667</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="F14">
-        <v>0.6268656716417911</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="G14">
-        <v>0.4680306905370844</v>
+        <v>0.4441624365482233</v>
       </c>
       <c r="H14">
-        <v>0.444</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6902173913043478</v>
+        <v>0.6918918918918919</v>
       </c>
       <c r="C15">
-        <v>0.4662921348314606</v>
+        <v>0.4503386004514673</v>
       </c>
       <c r="D15">
-        <v>0.546875</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="E15">
-        <v>0.4426666666666667</v>
+        <v>0.5190217391304348</v>
       </c>
       <c r="F15">
-        <v>0.6612903225806451</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="G15">
-        <v>0.4730077120822622</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="H15">
-        <v>0.44</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6863905325443787</v>
+        <v>0.7197802197802198</v>
       </c>
       <c r="C16">
-        <v>0.4650677789363921</v>
+        <v>0.4459745762711864</v>
       </c>
       <c r="D16">
-        <v>0.5633802816901409</v>
+        <v>0.5967741935483871</v>
       </c>
       <c r="E16">
-        <v>0.4467532467532467</v>
+        <v>0.5372340425531915</v>
       </c>
       <c r="F16">
-        <v>0.625</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="G16">
-        <v>0.4654731457800512</v>
+        <v>0.4427860696517413</v>
       </c>
       <c r="H16">
-        <v>0.444</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6927710843373494</v>
+        <v>0.6971428571428572</v>
       </c>
       <c r="C17">
-        <v>0.4709302325581395</v>
+        <v>0.4461994076999013</v>
       </c>
       <c r="D17">
-        <v>0.6176470588235294</v>
+        <v>0.75</v>
       </c>
       <c r="E17">
-        <v>0.4543010752688172</v>
+        <v>0.5418848167539267</v>
       </c>
       <c r="F17">
-        <v>0.6417910447761194</v>
+        <v>0.45</v>
       </c>
       <c r="G17">
-        <v>0.481283422459893</v>
+        <v>0.4413965087281795</v>
       </c>
       <c r="H17">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7485029940119761</v>
+        <v>0.718562874251497</v>
       </c>
       <c r="C18">
-        <v>0.4688908926961226</v>
+        <v>0.4503676470588235</v>
       </c>
       <c r="D18">
-        <v>0.5949367088607594</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E18">
-        <v>0.4523809523809524</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="F18">
-        <v>0.5405405405405406</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="G18">
-        <v>0.4764397905759162</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="H18">
-        <v>0.44</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7228915662650602</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="C19">
-        <v>0.4621276595744681</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="D19">
-        <v>0.676056338028169</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="E19">
-        <v>0.4491978609625669</v>
+        <v>0.53125</v>
       </c>
       <c r="F19">
-        <v>0.55</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="G19">
-        <v>0.4698162729658792</v>
+        <v>0.4206549118387909</v>
       </c>
       <c r="H19">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6704545454545454</v>
+        <v>0.6793478260869565</v>
       </c>
       <c r="C20">
-        <v>0.4663461538461539</v>
+        <v>0.4563977180114099</v>
       </c>
       <c r="D20">
-        <v>0.6410256410256411</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E20">
-        <v>0.4444444444444444</v>
+        <v>0.5398936170212766</v>
       </c>
       <c r="F20">
-        <v>0.5901639344262295</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="G20">
-        <v>0.4656488549618321</v>
+        <v>0.4267352185089974</v>
       </c>
       <c r="H20">
-        <v>0.464</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="C21">
-        <v>0.4708588957055215</v>
+        <v>0.4602184087363494</v>
       </c>
       <c r="D21">
-        <v>0.6621621621621622</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="E21">
-        <v>0.4588859416445623</v>
+        <v>0.55</v>
       </c>
       <c r="F21">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="G21">
-        <v>0.4646464646464646</v>
+        <v>0.4241645244215938</v>
       </c>
       <c r="H21">
-        <v>0.448</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7074468085106383</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C22">
-        <v>0.4684095860566449</v>
+        <v>0.4631268436578171</v>
       </c>
       <c r="D22">
-        <v>0.647887323943662</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="E22">
-        <v>0.4528795811518325</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="F22">
-        <v>0.5454545454545454</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="G22">
-        <v>0.4628712871287129</v>
+        <v>0.4296875</v>
       </c>
       <c r="H22">
-        <v>0.464</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7471910112359551</v>
+        <v>0.7</v>
       </c>
       <c r="C23">
-        <v>0.4653603918824353</v>
+        <v>0.4607293127629734</v>
       </c>
       <c r="D23">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E23">
-        <v>0.4514435695538058</v>
+        <v>0.5401069518716578</v>
       </c>
       <c r="F23">
-        <v>0.64</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="G23">
-        <v>0.4579207920792079</v>
+        <v>0.4493506493506493</v>
       </c>
       <c r="H23">
-        <v>0.448</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7277777777777777</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="C24">
-        <v>0.4659166115155526</v>
+        <v>0.4620550705171256</v>
       </c>
       <c r="D24">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E24">
-        <v>0.4450261780104712</v>
+        <v>0.5295698924731183</v>
       </c>
       <c r="F24">
-        <v>0.6226415094339622</v>
+        <v>0.59375</v>
       </c>
       <c r="G24">
-        <v>0.449877750611247</v>
+        <v>0.4467532467532467</v>
       </c>
       <c r="H24">
-        <v>0.456</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7142857142857143</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C25">
-        <v>0.4670468948035488</v>
+        <v>0.4641025641025641</v>
       </c>
       <c r="D25">
-        <v>0.6133333333333333</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="E25">
-        <v>0.4540682414698163</v>
+        <v>0.5284974093264249</v>
       </c>
       <c r="F25">
-        <v>0.6470588235294118</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="G25">
-        <v>0.4560975609756098</v>
+        <v>0.4424552429667519</v>
       </c>
       <c r="H25">
-        <v>0.432</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7011494252873564</v>
+        <v>0.7531645569620253</v>
       </c>
       <c r="C26">
-        <v>0.4691131498470948</v>
+        <v>0.4597772277227723</v>
       </c>
       <c r="D26">
-        <v>0.6438356164383562</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="E26">
-        <v>0.4489247311827957</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="F26">
-        <v>0.5272727272727272</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="G26">
-        <v>0.465</v>
+        <v>0.4438642297650131</v>
       </c>
       <c r="H26">
-        <v>0.408</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7045454545454546</v>
+        <v>0.7235294117647059</v>
       </c>
       <c r="C27">
-        <v>0.4724501758499414</v>
+        <v>0.4635879218472469</v>
       </c>
       <c r="D27">
-        <v>0.5952380952380952</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="E27">
-        <v>0.4423076923076923</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="F27">
-        <v>0.5409836065573771</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="G27">
-        <v>0.4730077120822622</v>
+        <v>0.4403183023872679</v>
       </c>
       <c r="H27">
-        <v>0.388</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7210526315789474</v>
+        <v>0.72</v>
       </c>
       <c r="C28">
-        <v>0.476029328821207</v>
+        <v>0.4667431192660551</v>
       </c>
       <c r="D28">
-        <v>0.5977011494252874</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="E28">
-        <v>0.4497206703910615</v>
+        <v>0.5040871934604905</v>
       </c>
       <c r="F28">
-        <v>0.5555555555555556</v>
+        <v>0.691358024691358</v>
       </c>
       <c r="G28">
-        <v>0.4754521963824289</v>
+        <v>0.448</v>
       </c>
       <c r="H28">
-        <v>0.408</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7237569060773481</v>
+        <v>0.7065217391304348</v>
       </c>
       <c r="C29">
-        <v>0.4738276990185387</v>
+        <v>0.4696132596685083</v>
       </c>
       <c r="D29">
-        <v>0.5647058823529412</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E29">
-        <v>0.4513513513513513</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="F29">
-        <v>0.578125</v>
+        <v>0.6172839506172839</v>
       </c>
       <c r="G29">
-        <v>0.4760705289672544</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="H29">
-        <v>0.404</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7441860465116279</v>
+        <v>0.6983240223463687</v>
       </c>
       <c r="C30">
-        <v>0.4743186582809225</v>
+        <v>0.4694860813704497</v>
       </c>
       <c r="D30">
-        <v>0.6119402985074627</v>
+        <v>0.5223880597014925</v>
       </c>
       <c r="E30">
-        <v>0.4353562005277045</v>
+        <v>0.4816753926701571</v>
       </c>
       <c r="F30">
-        <v>0.5689655172413793</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="G30">
-        <v>0.4764267990074442</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H30">
-        <v>0.408</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7045454545454546</v>
+        <v>0.7076023391812866</v>
       </c>
       <c r="C31">
-        <v>0.4715447154471545</v>
+        <v>0.4727838258164852</v>
       </c>
       <c r="D31">
-        <v>0.6451612903225806</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="E31">
-        <v>0.427807486631016</v>
+        <v>0.4707446808510639</v>
       </c>
       <c r="F31">
-        <v>0.7192982456140351</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="G31">
-        <v>0.4858611825192802</v>
+        <v>0.4693333333333333</v>
       </c>
       <c r="H31">
-        <v>0.408</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7085714285714285</v>
+        <v>0.691358024691358</v>
       </c>
       <c r="C32">
-        <v>0.4718657453109575</v>
+        <v>0.472</v>
       </c>
       <c r="D32">
-        <v>0.6666666666666666</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="E32">
-        <v>0.4254742547425474</v>
+        <v>0.4540682414698163</v>
       </c>
       <c r="F32">
-        <v>0.6615384615384615</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="G32">
-        <v>0.4750656167979003</v>
+        <v>0.4707446808510639</v>
       </c>
       <c r="H32">
-        <v>0.416</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.711864406779661</v>
+        <v>0.6918604651162791</v>
       </c>
       <c r="C33">
-        <v>0.47348303870043</v>
+        <v>0.4743961352657005</v>
       </c>
       <c r="D33">
-        <v>0.7215189873417721</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="E33">
-        <v>0.4390243902439024</v>
+        <v>0.4530831099195711</v>
       </c>
       <c r="F33">
-        <v>0.6338028169014085</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="G33">
-        <v>0.4763157894736842</v>
+        <v>0.476063829787234</v>
       </c>
       <c r="H33">
-        <v>0.408</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.725609756097561</v>
+        <v>0.6932515337423313</v>
       </c>
       <c r="C34">
-        <v>0.4726090993500464</v>
+        <v>0.4757418747056052</v>
       </c>
       <c r="D34">
-        <v>0.6455696202531646</v>
+        <v>0.5822784810126582</v>
       </c>
       <c r="E34">
-        <v>0.4480874316939891</v>
+        <v>0.4611260053619303</v>
       </c>
       <c r="F34">
-        <v>0.6142857142857143</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="G34">
-        <v>0.4813829787234042</v>
+        <v>0.4935400516795866</v>
       </c>
       <c r="H34">
-        <v>0.384</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7094594594594594</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="C35">
-        <v>0.472596585804133</v>
+        <v>0.4756928668786915</v>
       </c>
       <c r="D35">
-        <v>0.6125</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E35">
-        <v>0.4565217391304348</v>
+        <v>0.4586666666666667</v>
       </c>
       <c r="F35">
-        <v>0.5428571428571428</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G35">
-        <v>0.4671916010498688</v>
+        <v>0.4860050890585242</v>
       </c>
       <c r="H35">
-        <v>0.396</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7125748502994012</v>
+        <v>0.7388535031847133</v>
       </c>
       <c r="C36">
-        <v>0.4751405101599654</v>
+        <v>0.4774734982332156</v>
       </c>
       <c r="D36">
-        <v>0.6363636363636364</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="E36">
-        <v>0.4643799472295514</v>
+        <v>0.464</v>
       </c>
       <c r="F36">
-        <v>0.5625</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="G36">
-        <v>0.4683544303797468</v>
+        <v>0.4909560723514212</v>
       </c>
       <c r="H36">
-        <v>0.4</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.71875</v>
+        <v>0.68</v>
       </c>
       <c r="C37">
-        <v>0.4739075095460331</v>
+        <v>0.4743865690916918</v>
       </c>
       <c r="D37">
-        <v>0.6119402985074627</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="E37">
-        <v>0.4724409448818898</v>
+        <v>0.4471544715447154</v>
       </c>
       <c r="F37">
-        <v>0.5961538461538461</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="G37">
-        <v>0.4711779448621554</v>
+        <v>0.4819587628865979</v>
       </c>
       <c r="H37">
-        <v>0.424</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7125748502994012</v>
+        <v>0.6864864864864865</v>
       </c>
       <c r="C38">
-        <v>0.4757201646090535</v>
+        <v>0.4782792070856179</v>
       </c>
       <c r="D38">
-        <v>0.5901639344262295</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="E38">
-        <v>0.4763157894736842</v>
+        <v>0.448</v>
       </c>
       <c r="F38">
-        <v>0.4745762711864407</v>
+        <v>0.609375</v>
       </c>
       <c r="G38">
-        <v>0.4648241206030151</v>
+        <v>0.4808184143222506</v>
       </c>
       <c r="H38">
-        <v>0.444</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.727810650887574</v>
+        <v>0.6931818181818182</v>
       </c>
       <c r="C39">
-        <v>0.4739374498797113</v>
+        <v>0.4764851485148515</v>
       </c>
       <c r="D39">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="E39">
-        <v>0.4781491002570694</v>
+        <v>0.4477211796246649</v>
       </c>
       <c r="F39">
-        <v>0.4814814814814815</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="G39">
-        <v>0.4683544303797468</v>
+        <v>0.4637305699481865</v>
       </c>
       <c r="H39">
-        <v>0.456</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,22 +1414,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7055214723926381</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C40">
-        <v>0.4713275726630008</v>
+        <v>0.4778938906752412</v>
       </c>
       <c r="D40">
-        <v>0.5614035087719298</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="E40">
-        <v>0.4816753926701571</v>
+        <v>0.4403183023872679</v>
       </c>
       <c r="F40">
-        <v>0.4915254237288136</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="G40">
-        <v>0.4631043256997455</v>
+        <v>0.4673629242819843</v>
       </c>
       <c r="H40">
         <v>0.464</v>
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.688622754491018</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="C41">
-        <v>0.4753534581581964</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D41">
-        <v>0.6470588235294118</v>
+        <v>0.6</v>
       </c>
       <c r="E41">
-        <v>0.4934725848563969</v>
+        <v>0.4327956989247312</v>
       </c>
       <c r="F41">
-        <v>0.4788732394366197</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="G41">
-        <v>0.4519480519480519</v>
+        <v>0.4712041884816754</v>
       </c>
       <c r="H41">
-        <v>0.484</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6729559748427673</v>
+        <v>0.7206703910614525</v>
       </c>
       <c r="C42">
-        <v>0.4765829898838516</v>
+        <v>0.4738049713193117</v>
       </c>
       <c r="D42">
-        <v>0.5540540540540541</v>
+        <v>0.6309523809523809</v>
       </c>
       <c r="E42">
-        <v>0.4796747967479675</v>
+        <v>0.4414893617021277</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="G42">
-        <v>0.450402144772118</v>
+        <v>0.4690721649484536</v>
       </c>
       <c r="H42">
-        <v>0.496</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7114093959731543</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="C43">
-        <v>0.4790833030192798</v>
+        <v>0.474315710536183</v>
       </c>
       <c r="D43">
-        <v>0.5632183908045977</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="E43">
-        <v>0.4906166219839142</v>
+        <v>0.4435483870967742</v>
       </c>
       <c r="F43">
-        <v>0.5333333333333333</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="G43">
-        <v>0.4386422976501306</v>
+        <v>0.4658227848101266</v>
       </c>
       <c r="H43">
-        <v>0.496</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.6912751677852349</v>
+        <v>0.71</v>
       </c>
       <c r="C44">
-        <v>0.4769339957416607</v>
+        <v>0.4712601326455416</v>
       </c>
       <c r="D44">
-        <v>0.5492957746478874</v>
+        <v>0.6329113924050633</v>
       </c>
       <c r="E44">
-        <v>0.4863387978142076</v>
+        <v>0.4419889502762431</v>
       </c>
       <c r="F44">
-        <v>0.5645161290322581</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="G44">
-        <v>0.4356955380577428</v>
+        <v>0.4789473684210526</v>
       </c>
       <c r="H44">
-        <v>0.508</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6835443037974683</v>
+        <v>0.7371134020618557</v>
       </c>
       <c r="C45">
-        <v>0.477627471383975</v>
+        <v>0.4721014492753623</v>
       </c>
       <c r="D45">
-        <v>0.5526315789473685</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="E45">
-        <v>0.4867021276595745</v>
+        <v>0.4459833795013851</v>
       </c>
       <c r="F45">
-        <v>0.5454545454545454</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="G45">
-        <v>0.4432989690721649</v>
+        <v>0.4682539682539683</v>
       </c>
       <c r="H45">
-        <v>0.472</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6610169491525424</v>
+        <v>0.6810810810810811</v>
       </c>
       <c r="C46">
-        <v>0.4770330044232732</v>
+        <v>0.4721242060691602</v>
       </c>
       <c r="D46">
-        <v>0.6268656716417911</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E46">
-        <v>0.4894736842105263</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="F46">
-        <v>0.5238095238095238</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="G46">
-        <v>0.4478371501272265</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="H46">
-        <v>0.46</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6666666666666666</v>
+        <v>0.7401129943502824</v>
       </c>
       <c r="C47">
-        <v>0.4760147601476015</v>
+        <v>0.4767161090031045</v>
       </c>
       <c r="D47">
-        <v>0.5714285714285714</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="E47">
-        <v>0.4859335038363171</v>
+        <v>0.4462809917355372</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="G47">
-        <v>0.4525</v>
+        <v>0.4609375</v>
       </c>
       <c r="H47">
-        <v>0.472</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6557377049180327</v>
+        <v>0.7621621621621621</v>
       </c>
       <c r="C48">
-        <v>0.474934036939314</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D48">
-        <v>0.7049180327868853</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E48">
-        <v>0.4856396866840731</v>
+        <v>0.4490358126721763</v>
       </c>
       <c r="F48">
-        <v>0.5510204081632653</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="G48">
-        <v>0.4636591478696742</v>
+        <v>0.4543080939947781</v>
       </c>
       <c r="H48">
-        <v>0.448</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6384180790960452</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C49">
-        <v>0.4762520193861066</v>
+        <v>0.4741892786234282</v>
       </c>
       <c r="D49">
-        <v>0.704225352112676</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="E49">
-        <v>0.4575835475578406</v>
+        <v>0.4471544715447154</v>
       </c>
       <c r="F49">
-        <v>0.625</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="G49">
-        <v>0.4716049382716049</v>
+        <v>0.4498714652956298</v>
       </c>
       <c r="H49">
-        <v>0.432</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6588235294117647</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C50">
-        <v>0.4800506649778341</v>
+        <v>0.4772431729518856</v>
       </c>
       <c r="D50">
-        <v>0.6290322580645161</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="E50">
-        <v>0.4514435695538058</v>
+        <v>0.4420485175202156</v>
       </c>
       <c r="F50">
-        <v>0.6666666666666666</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="G50">
-        <v>0.4623115577889447</v>
+        <v>0.4521963824289406</v>
       </c>
       <c r="H50">
-        <v>0.436</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6927710843373494</v>
+        <v>0.7218934911242604</v>
       </c>
       <c r="C51">
-        <v>0.478584729981378</v>
+        <v>0.4794258373205741</v>
       </c>
       <c r="D51">
-        <v>0.5373134328358209</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="E51">
-        <v>0.4595300261096606</v>
+        <v>0.4394736842105263</v>
       </c>
       <c r="F51">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="G51">
-        <v>0.4658227848101266</v>
+        <v>0.4561855670103093</v>
       </c>
       <c r="H51">
-        <v>0.452</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.6586826347305389</v>
+        <v>0.7235294117647059</v>
       </c>
       <c r="C52">
-        <v>0.4776799271181293</v>
+        <v>0.4808828100714952</v>
       </c>
       <c r="D52">
-        <v>0.6133333333333333</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="E52">
-        <v>0.4554973821989529</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="F52">
-        <v>0.6818181818181818</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="G52">
-        <v>0.4731457800511509</v>
+        <v>0.4519480519480519</v>
       </c>
       <c r="H52">
-        <v>0.448</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6914285714285714</v>
+        <v>0.7239583333333334</v>
       </c>
       <c r="C53">
-        <v>0.4783646672635034</v>
+        <v>0.4808926933659431</v>
       </c>
       <c r="D53">
-        <v>0.6197183098591549</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="E53">
-        <v>0.4381720430107527</v>
+        <v>0.4474393530997305</v>
       </c>
       <c r="F53">
-        <v>0.6333333333333333</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="G53">
-        <v>0.4751958224543081</v>
+        <v>0.4599483204134367</v>
       </c>
       <c r="H53">
-        <v>0.456</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7662337662337663</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="C54">
-        <v>0.4762184380504991</v>
+        <v>0.4805077062556664</v>
       </c>
       <c r="D54">
-        <v>0.6666666666666666</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="E54">
-        <v>0.4301075268817204</v>
+        <v>0.4547872340425532</v>
       </c>
       <c r="F54">
-        <v>0.6764705882352942</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="G54">
-        <v>0.4832041343669251</v>
+        <v>0.453125</v>
       </c>
       <c r="H54">
-        <v>0.472</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7515527950310559</v>
+        <v>0.7425149700598802</v>
       </c>
       <c r="C55">
-        <v>0.4752077959300659</v>
+        <v>0.4821058858325939</v>
       </c>
       <c r="D55">
-        <v>0.654320987654321</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E55">
-        <v>0.4254742547425474</v>
+        <v>0.4406332453825857</v>
       </c>
       <c r="F55">
-        <v>0.6571428571428571</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G55">
-        <v>0.4645669291338583</v>
+        <v>0.4510309278350516</v>
       </c>
       <c r="H55">
-        <v>0.492</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7423312883435583</v>
+        <v>0.7176470588235294</v>
       </c>
       <c r="C56">
-        <v>0.4751833051325437</v>
+        <v>0.4827984966753397</v>
       </c>
       <c r="D56">
-        <v>0.5857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="E56">
-        <v>0.431266846361186</v>
+        <v>0.4344473007712082</v>
       </c>
       <c r="F56">
-        <v>0.671875</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G56">
-        <v>0.4728682170542636</v>
+        <v>0.4433249370277078</v>
       </c>
       <c r="H56">
-        <v>0.476</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7142857142857143</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="C57">
-        <v>0.4762565953901694</v>
+        <v>0.4823663253697383</v>
       </c>
       <c r="D57">
-        <v>0.589041095890411</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E57">
-        <v>0.4379947229551451</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="F57">
-        <v>0.6909090909090909</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G57">
-        <v>0.467866323907455</v>
+        <v>0.425</v>
       </c>
       <c r="H57">
-        <v>0.476</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6987951807228916</v>
+        <v>0.6894736842105263</v>
       </c>
       <c r="C58">
-        <v>0.4781181619256017</v>
+        <v>0.4803017602682313</v>
       </c>
       <c r="D58">
-        <v>0.5675675675675675</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="E58">
-        <v>0.4414893617021277</v>
+        <v>0.4321608040201005</v>
       </c>
       <c r="F58">
-        <v>0.6774193548387096</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G58">
-        <v>0.4595959595959596</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H58">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6779661016949152</v>
+        <v>0.6868131868131868</v>
       </c>
       <c r="C59">
-        <v>0.4797097554420854</v>
+        <v>0.4820342730790492</v>
       </c>
       <c r="D59">
-        <v>0.5507246376811594</v>
+        <v>0.65</v>
       </c>
       <c r="E59">
-        <v>0.4319371727748691</v>
+        <v>0.4355670103092784</v>
       </c>
       <c r="F59">
-        <v>0.6376811594202898</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="G59">
-        <v>0.4685138539042821</v>
+        <v>0.4249363867684479</v>
       </c>
       <c r="H59">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6551724137931034</v>
+        <v>0.6850828729281768</v>
       </c>
       <c r="C60">
-        <v>0.4817170111287759</v>
+        <v>0.4818850449468809</v>
       </c>
       <c r="D60">
-        <v>0.5806451612903226</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E60">
-        <v>0.4233766233766234</v>
+        <v>0.4438502673796791</v>
       </c>
       <c r="F60">
-        <v>0.6764705882352942</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="G60">
-        <v>0.4693877551020408</v>
+        <v>0.4278215223097113</v>
       </c>
       <c r="H60">
-        <v>0.508</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6647058823529411</v>
+        <v>0.6611111111111111</v>
       </c>
       <c r="C61">
-        <v>0.4835852006253257</v>
+        <v>0.4807383627608346</v>
       </c>
       <c r="D61">
-        <v>0.5692307692307692</v>
+        <v>0.5888888888888889</v>
       </c>
       <c r="E61">
-        <v>0.4207792207792208</v>
+        <v>0.4552845528455284</v>
       </c>
       <c r="F61">
-        <v>0.7301587301587301</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="G61">
-        <v>0.4677002583979328</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="H61">
-        <v>0.512</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,22 +1986,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.7142857142857143</v>
+        <v>0.7103825136612022</v>
       </c>
       <c r="C62">
-        <v>0.4836233367451382</v>
+        <v>0.4823405376910912</v>
       </c>
       <c r="D62">
-        <v>0.5735294117647058</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="E62">
-        <v>0.4263565891472868</v>
+        <v>0.4510869565217391</v>
       </c>
       <c r="F62">
-        <v>0.6615384615384615</v>
+        <v>0.5</v>
       </c>
       <c r="G62">
-        <v>0.4732824427480916</v>
+        <v>0.4235588972431077</v>
       </c>
       <c r="H62">
         <v>0.504</v>
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.7134502923976608</v>
+        <v>0.6740331491712708</v>
       </c>
       <c r="C63">
-        <v>0.4814814814814815</v>
+        <v>0.48</v>
       </c>
       <c r="D63">
-        <v>0.6</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="E63">
-        <v>0.4366925064599483</v>
+        <v>0.4506666666666667</v>
       </c>
       <c r="F63">
-        <v>0.5471698113207547</v>
+        <v>0.5</v>
       </c>
       <c r="G63">
-        <v>0.4860050890585242</v>
+        <v>0.4250614250614251</v>
       </c>
       <c r="H63">
-        <v>0.488</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.73125</v>
+        <v>0.7189189189189189</v>
       </c>
       <c r="C64">
-        <v>0.4816753926701571</v>
+        <v>0.4816807583909813</v>
       </c>
       <c r="D64">
-        <v>0.6056338028169014</v>
+        <v>0.6</v>
       </c>
       <c r="E64">
-        <v>0.4346666666666666</v>
+        <v>0.445910290237467</v>
       </c>
       <c r="F64">
-        <v>0.5357142857142857</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="G64">
-        <v>0.5038560411311054</v>
+        <v>0.4384236453201971</v>
       </c>
       <c r="H64">
-        <v>0.48</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6993865030674846</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="C65">
-        <v>0.4828094302554027</v>
+        <v>0.4788554064320081</v>
       </c>
       <c r="D65">
-        <v>0.5942028985507246</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="E65">
-        <v>0.438692098092643</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="F65">
-        <v>0.5138888888888888</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="G65">
-        <v>0.5</v>
+        <v>0.4325</v>
       </c>
       <c r="H65">
-        <v>0.456</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6848484848484848</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="C66">
-        <v>0.4840116279069768</v>
+        <v>0.4813247011952191</v>
       </c>
       <c r="D66">
-        <v>0.6</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="E66">
-        <v>0.4411764705882353</v>
+        <v>0.4523160762942779</v>
       </c>
       <c r="F66">
-        <v>0.5441176470588235</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G66">
-        <v>0.4973544973544973</v>
+        <v>0.4289340101522843</v>
       </c>
       <c r="H66">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6851851851851852</v>
+        <v>0.6729559748427673</v>
       </c>
       <c r="C67">
-        <v>0.4866092778574845</v>
+        <v>0.482615083251714</v>
       </c>
       <c r="D67">
-        <v>0.6086956521739131</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E67">
-        <v>0.4365079365079365</v>
+        <v>0.4350132625994695</v>
       </c>
       <c r="F67">
-        <v>0.5633802816901409</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="G67">
-        <v>0.484375</v>
+        <v>0.4373401534526854</v>
       </c>
       <c r="H67">
-        <v>0.48</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.672514619883041</v>
+        <v>0.6871165644171779</v>
       </c>
       <c r="C68">
-        <v>0.4864610313162232</v>
+        <v>0.4817940680009645</v>
       </c>
       <c r="D68">
-        <v>0.5294117647058824</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="E68">
-        <v>0.4366925064599483</v>
+        <v>0.44</v>
       </c>
       <c r="F68">
-        <v>0.5362318840579711</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="G68">
-        <v>0.4793814432989691</v>
+        <v>0.4432717678100264</v>
       </c>
       <c r="H68">
-        <v>0.488</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7087912087912088</v>
+        <v>0.6795580110497238</v>
       </c>
       <c r="C69">
-        <v>0.4861466821885914</v>
+        <v>0.4791617051678971</v>
       </c>
       <c r="D69">
-        <v>0.576271186440678</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="E69">
-        <v>0.4392764857881137</v>
+        <v>0.4435483870967742</v>
       </c>
       <c r="F69">
-        <v>0.5192307692307693</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="G69">
-        <v>0.4666666666666667</v>
+        <v>0.4401041666666667</v>
       </c>
       <c r="H69">
-        <v>0.492</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7085714285714285</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C70">
-        <v>0.4826709796672828</v>
+        <v>0.478680800942285</v>
       </c>
       <c r="D70">
-        <v>0.6031746031746031</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="E70">
-        <v>0.4322916666666667</v>
+        <v>0.4447368421052632</v>
       </c>
       <c r="F70">
-        <v>0.5882352941176471</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="G70">
-        <v>0.4636591478696742</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="H70">
-        <v>0.512</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7134831460674157</v>
+        <v>0.7243243243243244</v>
       </c>
       <c r="C71">
-        <v>0.4827507943713119</v>
+        <v>0.4770556720242255</v>
       </c>
       <c r="D71">
-        <v>0.6103896103896104</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="E71">
-        <v>0.4418604651162791</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="F71">
-        <v>0.6206896551724138</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="G71">
-        <v>0.4504950495049505</v>
+        <v>0.4475</v>
       </c>
       <c r="H71">
-        <v>0.508</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.711864406779661</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="C72">
-        <v>0.4819222995733213</v>
+        <v>0.4763435920992191</v>
       </c>
       <c r="D72">
-        <v>0.6376811594202898</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="E72">
-        <v>0.4432717678100264</v>
+        <v>0.4637305699481865</v>
       </c>
       <c r="F72">
-        <v>0.5573770491803278</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="G72">
-        <v>0.448019801980198</v>
+        <v>0.4574209245742092</v>
       </c>
       <c r="H72">
-        <v>0.504</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7191011235955056</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="C73">
-        <v>0.4817518248175183</v>
+        <v>0.4769439421338155</v>
       </c>
       <c r="D73">
-        <v>0.6811594202898551</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E73">
-        <v>0.4458762886597938</v>
+        <v>0.4643799472295514</v>
       </c>
       <c r="F73">
-        <v>0.6181818181818182</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="G73">
-        <v>0.4527363184079602</v>
+        <v>0.4663341645885287</v>
       </c>
       <c r="H73">
-        <v>0.484</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.7206703910614525</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="C74">
-        <v>0.4797282489590182</v>
+        <v>0.4776686020544886</v>
       </c>
       <c r="D74">
-        <v>0.6461538461538462</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E74">
-        <v>0.4406332453825857</v>
+        <v>0.4694960212201592</v>
       </c>
       <c r="F74">
-        <v>0.5925925925925926</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="G74">
-        <v>0.4433249370277078</v>
+        <v>0.4552429667519182</v>
       </c>
       <c r="H74">
-        <v>0.472</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6834170854271356</v>
+        <v>0.6705202312138728</v>
       </c>
       <c r="C75">
-        <v>0.479004329004329</v>
+        <v>0.4776844896155546</v>
       </c>
       <c r="D75">
-        <v>0.6533333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E75">
-        <v>0.4521276595744681</v>
+        <v>0.4646739130434783</v>
       </c>
       <c r="F75">
-        <v>0.6290322580645161</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="G75">
-        <v>0.4478371501272265</v>
+        <v>0.4587628865979381</v>
       </c>
       <c r="H75">
-        <v>0.464</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7071823204419889</v>
+        <v>0.7005649717514124</v>
       </c>
       <c r="C76">
-        <v>0.4804132587171761</v>
+        <v>0.4791530233573456</v>
       </c>
       <c r="D76">
-        <v>0.625</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="E76">
-        <v>0.4528301886792453</v>
+        <v>0.4713896457765668</v>
       </c>
       <c r="F76">
-        <v>0.5483870967741935</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G76">
-        <v>0.4418604651162791</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="H76">
-        <v>0.476</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6963350785340314</v>
+        <v>0.7485380116959064</v>
       </c>
       <c r="C77">
-        <v>0.4804149904721575</v>
+        <v>0.4781857451403888</v>
       </c>
       <c r="D77">
-        <v>0.5584415584415584</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="E77">
-        <v>0.4675324675324675</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F77">
-        <v>0.603448275862069</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="G77">
-        <v>0.4503816793893129</v>
+        <v>0.4547738693467337</v>
       </c>
       <c r="H77">
-        <v>0.468</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7076923076923077</v>
+        <v>0.7197802197802198</v>
       </c>
       <c r="C78">
-        <v>0.4798826487845767</v>
+        <v>0.4772146507666099</v>
       </c>
       <c r="D78">
-        <v>0.5694444444444444</v>
+        <v>0.581081081081081</v>
       </c>
       <c r="E78">
-        <v>0.4738219895287958</v>
+        <v>0.4823848238482385</v>
       </c>
       <c r="F78">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="G78">
-        <v>0.4455445544554456</v>
+        <v>0.4621212121212121</v>
       </c>
       <c r="H78">
-        <v>0.472</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7287234042553191</v>
+        <v>0.7403314917127072</v>
       </c>
       <c r="C79">
-        <v>0.4789637305699482</v>
+        <v>0.4784537389100127</v>
       </c>
       <c r="D79">
-        <v>0.6268656716417911</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E79">
-        <v>0.4713541666666667</v>
+        <v>0.4825737265415549</v>
       </c>
       <c r="F79">
-        <v>0.6181818181818182</v>
+        <v>0.515625</v>
       </c>
       <c r="G79">
-        <v>0.4402985074626866</v>
+        <v>0.4517766497461929</v>
       </c>
       <c r="H79">
-        <v>0.468</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6935483870967742</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="C80">
-        <v>0.479072630283135</v>
+        <v>0.4775808133472367</v>
       </c>
       <c r="D80">
-        <v>0.6307692307692307</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E80">
-        <v>0.4698162729658792</v>
+        <v>0.4893048128342246</v>
       </c>
       <c r="F80">
-        <v>0.6111111111111112</v>
+        <v>0.5</v>
       </c>
       <c r="G80">
-        <v>0.4217171717171717</v>
+        <v>0.4529262086513995</v>
       </c>
       <c r="H80">
-        <v>0.476</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.7183908045977011</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C81">
-        <v>0.4792935444579781</v>
+        <v>0.4799506477483035</v>
       </c>
       <c r="D81">
-        <v>0.5915492957746479</v>
+        <v>0.65625</v>
       </c>
       <c r="E81">
-        <v>0.4707446808510639</v>
+        <v>0.4853333333333333</v>
       </c>
       <c r="F81">
-        <v>0.5441176470588235</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="G81">
-        <v>0.4325699745547074</v>
+        <v>0.4575835475578406</v>
       </c>
       <c r="H81">
-        <v>0.464</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.7015706806282722</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="C82">
-        <v>0.4794876926155693</v>
+        <v>0.4785699776559009</v>
       </c>
       <c r="D82">
-        <v>0.676056338028169</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="E82">
-        <v>0.474934036939314</v>
+        <v>0.4623376623376623</v>
       </c>
       <c r="F82">
-        <v>0.5522388059701493</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="G82">
-        <v>0.4337662337662337</v>
+        <v>0.4529262086513995</v>
       </c>
       <c r="H82">
-        <v>0.468</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.7055837563451777</v>
+        <v>0.7087912087912088</v>
       </c>
       <c r="C83">
-        <v>0.4783386327503975</v>
+        <v>0.4783219590525893</v>
       </c>
       <c r="D83">
-        <v>0.676056338028169</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="E83">
-        <v>0.4814814814814815</v>
+        <v>0.4713541666666667</v>
       </c>
       <c r="F83">
-        <v>0.5645161290322581</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G83">
-        <v>0.4278350515463917</v>
+        <v>0.4452926208651399</v>
       </c>
       <c r="H83">
-        <v>0.476</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7076923076923077</v>
+        <v>0.6703910614525139</v>
       </c>
       <c r="C84">
-        <v>0.4784491241881519</v>
+        <v>0.4789882493527186</v>
       </c>
       <c r="D84">
-        <v>0.6865671641791045</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E84">
-        <v>0.4790575916230366</v>
+        <v>0.4625668449197861</v>
       </c>
       <c r="F84">
-        <v>0.5172413793103449</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G84">
-        <v>0.4185463659147869</v>
+        <v>0.4505208333333333</v>
       </c>
       <c r="H84">
-        <v>0.492</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7157894736842105</v>
+        <v>0.6927374301675978</v>
       </c>
       <c r="C85">
-        <v>0.4775741029641186</v>
+        <v>0.4806216801101711</v>
       </c>
       <c r="D85">
-        <v>0.6060606060606061</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="E85">
-        <v>0.4806201550387597</v>
+        <v>0.4533678756476684</v>
       </c>
       <c r="F85">
-        <v>0.5178571428571429</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="G85">
-        <v>0.4064837905236908</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="H85">
-        <v>0.508</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7135135135135136</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="C86">
-        <v>0.4771544245228456</v>
+        <v>0.4784390243902439</v>
       </c>
       <c r="D86">
-        <v>0.6470588235294118</v>
+        <v>0.5679012345679012</v>
       </c>
       <c r="E86">
-        <v>0.4831168831168831</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="F86">
-        <v>0.5483870967741935</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G86">
-        <v>0.4005037783375315</v>
+        <v>0.4470899470899471</v>
       </c>
       <c r="H86">
-        <v>0.516</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7039106145251397</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="C87">
-        <v>0.4770257387988561</v>
+        <v>0.4773820981713186</v>
       </c>
       <c r="D87">
-        <v>0.6056338028169014</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="E87">
-        <v>0.4656084656084656</v>
+        <v>0.4632152588555858</v>
       </c>
       <c r="F87">
-        <v>0.6140350877192983</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="G87">
-        <v>0.3994910941475827</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="H87">
-        <v>0.52</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6885245901639344</v>
+        <v>0.7309941520467836</v>
       </c>
       <c r="C88">
-        <v>0.4781952048329243</v>
+        <v>0.4785673461611736</v>
       </c>
       <c r="D88">
-        <v>0.684931506849315</v>
+        <v>0.6417910447761194</v>
       </c>
       <c r="E88">
-        <v>0.4758064516129032</v>
+        <v>0.4696569920844327</v>
       </c>
       <c r="F88">
-        <v>0.6842105263157895</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="G88">
-        <v>0.4050632911392405</v>
+        <v>0.4401041666666667</v>
       </c>
       <c r="H88">
-        <v>0.512</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6984126984126984</v>
+        <v>0.7421052631578947</v>
       </c>
       <c r="C89">
-        <v>0.4791783380018674</v>
+        <v>0.4787274096385542</v>
       </c>
       <c r="D89">
-        <v>0.6419753086419753</v>
+        <v>0.6268656716417911</v>
       </c>
       <c r="E89">
-        <v>0.4707446808510639</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="F89">
-        <v>0.6461538461538462</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="G89">
-        <v>0.3984771573604061</v>
+        <v>0.4255874673629243</v>
       </c>
       <c r="H89">
-        <v>0.516</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.6943005181347151</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C90">
-        <v>0.4792746113989637</v>
+        <v>0.478342396399775</v>
       </c>
       <c r="D90">
-        <v>0.5866666666666667</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="E90">
-        <v>0.4677419354838709</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="F90">
-        <v>0.6065573770491803</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="G90">
-        <v>0.4010152284263959</v>
+        <v>0.4304812834224599</v>
       </c>
       <c r="H90">
-        <v>0.508</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7127071823204419</v>
+        <v>0.7473684210526316</v>
       </c>
       <c r="C91">
-        <v>0.4797581974720645</v>
+        <v>0.4790775525385903</v>
       </c>
       <c r="D91">
-        <v>0.5584415584415584</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="E91">
-        <v>0.4564643799472295</v>
+        <v>0.4684931506849315</v>
       </c>
       <c r="F91">
-        <v>0.6346153846153846</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="G91">
-        <v>0.4110275689223057</v>
+        <v>0.4363143631436314</v>
       </c>
       <c r="H91">
-        <v>0.496</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6684491978609626</v>
+        <v>0.7771428571428571</v>
       </c>
       <c r="C92">
-        <v>0.4797824116047144</v>
+        <v>0.4796628801758886</v>
       </c>
       <c r="D92">
-        <v>0.5362318840579711</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="E92">
-        <v>0.4632152588555858</v>
+        <v>0.4659400544959128</v>
       </c>
       <c r="F92">
-        <v>0.6491228070175439</v>
+        <v>0.6329113924050633</v>
       </c>
       <c r="G92">
-        <v>0.4170854271356784</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H92">
-        <v>0.488</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6647058823529411</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C93">
-        <v>0.4805545552754771</v>
+        <v>0.4783866883704105</v>
       </c>
       <c r="D93">
-        <v>0.5333333333333333</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="E93">
-        <v>0.4543010752688172</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F93">
-        <v>0.5373134328358209</v>
+        <v>0.65625</v>
       </c>
       <c r="G93">
-        <v>0.4370179948586118</v>
+        <v>0.4375</v>
       </c>
       <c r="H93">
-        <v>0.46</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.672514619883041</v>
+        <v>0.7164948453608248</v>
       </c>
       <c r="C94">
-        <v>0.4809540761836953</v>
+        <v>0.4790096878363832</v>
       </c>
       <c r="D94">
-        <v>0.5600000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="E94">
-        <v>0.4582210242587601</v>
+        <v>0.4595300261096606</v>
       </c>
       <c r="F94">
-        <v>0.5671641791044776</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G94">
-        <v>0.4569190600522193</v>
+        <v>0.4515306122448979</v>
       </c>
       <c r="H94">
-        <v>0.44</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6744186046511628</v>
+        <v>0.7106598984771574</v>
       </c>
       <c r="C95">
-        <v>0.4809456598447424</v>
+        <v>0.4791295041027471</v>
       </c>
       <c r="D95">
-        <v>0.5797101449275363</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="E95">
-        <v>0.4444444444444444</v>
+        <v>0.4627659574468085</v>
       </c>
       <c r="F95">
-        <v>0.5384615384615384</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="G95">
-        <v>0.4633507853403142</v>
+        <v>0.441025641025641</v>
       </c>
       <c r="H95">
-        <v>0.428</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7018633540372671</v>
+        <v>0.7185929648241206</v>
       </c>
       <c r="C96">
-        <v>0.4814103683016233</v>
+        <v>0.4798024342917622</v>
       </c>
       <c r="D96">
-        <v>0.52</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E96">
-        <v>0.4493506493506493</v>
+        <v>0.4635416666666667</v>
       </c>
       <c r="F96">
-        <v>0.6</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="G96">
-        <v>0.4683544303797468</v>
+        <v>0.4370179948586118</v>
       </c>
       <c r="H96">
-        <v>0.404</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.6686046511627907</v>
+        <v>0.7286432160804021</v>
       </c>
       <c r="C97">
-        <v>0.4820441988950276</v>
+        <v>0.4800977653631285</v>
       </c>
       <c r="D97">
-        <v>0.5079365079365079</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E97">
-        <v>0.4476439790575916</v>
+        <v>0.468586387434555</v>
       </c>
       <c r="F97">
-        <v>0.5918367346938775</v>
+        <v>0.5</v>
       </c>
       <c r="G97">
-        <v>0.4568527918781726</v>
+        <v>0.4362244897959184</v>
       </c>
       <c r="H97">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6742857142857143</v>
+        <v>0.7025641025641025</v>
       </c>
       <c r="C98">
-        <v>0.4826876928351045</v>
+        <v>0.4804295116037409</v>
       </c>
       <c r="D98">
-        <v>0.4528301886792453</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="E98">
-        <v>0.4505208333333333</v>
+        <v>0.4742268041237113</v>
       </c>
       <c r="F98">
-        <v>0.6727272727272727</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="G98">
-        <v>0.4625</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="H98">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6896551724137931</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C99">
-        <v>0.4824367894111658</v>
+        <v>0.4817292846114256</v>
       </c>
       <c r="D99">
-        <v>0.4776119402985075</v>
+        <v>0.5</v>
       </c>
       <c r="E99">
-        <v>0.456140350877193</v>
+        <v>0.4704370179948586</v>
       </c>
       <c r="F99">
-        <v>0.5901639344262295</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="G99">
-        <v>0.4575</v>
+        <v>0.4402035623409669</v>
       </c>
       <c r="H99">
-        <v>0.416</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7150837988826816</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="C100">
-        <v>0.4813820865481382</v>
+        <v>0.4811800610376399</v>
       </c>
       <c r="D100">
-        <v>0.5081967213114754</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="E100">
-        <v>0.4540816326530612</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="F100">
-        <v>0.5892857142857143</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G100">
-        <v>0.4611528822055138</v>
+        <v>0.438287153652393</v>
       </c>
       <c r="H100">
-        <v>0.404</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6951219512195121</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="C101">
-        <v>0.4806253118243805</v>
+        <v>0.4822266934942991</v>
       </c>
       <c r="D101">
-        <v>0.5901639344262295</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="E101">
-        <v>0.438287153652393</v>
+        <v>0.4484536082474227</v>
       </c>
       <c r="F101">
-        <v>0.5333333333333333</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="G101">
-        <v>0.4577114427860697</v>
+        <v>0.4306930693069307</v>
       </c>
       <c r="H101">
-        <v>0.412</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
